--- a/downloaded_files/MTHS204_Tutorial-35062.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35062.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -415,6 +415,15 @@
   </x:si>
   <x:si>
     <x:t>nour montasser magdy mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هيا احمد عبدالسلام احمد محمد النجار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haya Ahmed abdelsalam el Naggar</x:t>
   </x:si>
   <x:si>
     <x:t>1220153</x:t>
@@ -557,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2322,7 +2331,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.5545430903</x:v>
+        <x:v>45919.3903082523</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2354,7 +2363,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.6318636574</x:v>
+        <x:v>45915.5545430903</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45915.6318636574</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,6 +2412,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45906.6649812153</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS204_Tutorial-35062.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35062.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN AHMED IBRAHIM ABDELRAHMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1230051</x:t>
@@ -566,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -874,7 +883,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.640625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1565,7 +1574,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145228357</x:v>
+        <x:v>45923.9234601852</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4145228357</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4145199421</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.4145199421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4341928588</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45907.4341928588</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1785,9 +1794,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.552733912</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1810,16 +1821,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45915.5541662037</x:v>
+        <x:v>45915.552733912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1851,7 +1860,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45915.5541662037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1883,7 +1892,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1915,7 +1924,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6932487268</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1947,7 +1956,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.6322303241</x:v>
+        <x:v>45906.6932487268</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1979,7 +1988,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45915.6322303241</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2011,7 +2020,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.5543664005</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2043,7 +2052,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.5544466782</x:v>
+        <x:v>45915.5543664005</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2075,7 +2084,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.6323031597</x:v>
+        <x:v>45915.5544466782</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2107,7 +2116,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4151114583</x:v>
+        <x:v>45915.6323031597</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2139,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5543087153</x:v>
+        <x:v>45909.4151114583</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2171,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.6319752662</x:v>
+        <x:v>45915.5543087153</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2203,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5546143519</x:v>
+        <x:v>45915.6319752662</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2235,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.6323799421</x:v>
+        <x:v>45915.5546143519</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2267,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4150170949</x:v>
+        <x:v>45915.6323799421</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2299,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.5495391204</x:v>
+        <x:v>45909.4150170949</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2331,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45919.3903082523</x:v>
+        <x:v>45915.5495391204</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2363,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.5545430903</x:v>
+        <x:v>45919.3903082523</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2395,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.6318636574</x:v>
+        <x:v>45915.5545430903</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2427,7 +2436,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45915.6318636574</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2444,6 +2453,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45906.6649812153</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS204_Tutorial-35062.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35062.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ibrahim Aly Ibrahim Hassan Elsayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محمد عبدالمجيد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ebrahim Mohamed Abdel Magied Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230008</x:t>
   </x:si>
   <x:si>
@@ -94,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>hassan amr mostafa mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد محمد خالد احمد زين الدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Mohamed Khaled Ahmed Zain El/Dein</x:t>
   </x:si>
   <x:si>
     <x:t>4230337</x:t>
@@ -575,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -875,7 +893,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1030,7 +1048,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4142915162</x:v>
+        <x:v>45925.4934761574</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1062,7 +1080,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4145315162</x:v>
+        <x:v>45907.4142915162</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1094,7 +1112,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4144651968</x:v>
+        <x:v>45907.4145315162</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1126,7 +1144,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.6321369213</x:v>
+        <x:v>45907.4144651968</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1158,7 +1176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4157564815</x:v>
+        <x:v>45915.6321369213</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1190,7 +1208,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45909.4157564815</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1222,7 +1240,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45925.495612037</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1254,7 +1272,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6648852199</x:v>
+        <x:v>45906.6652700231</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1286,7 +1304,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4152705671</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1318,7 +1336,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4232955208</x:v>
+        <x:v>45906.6648852199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1350,7 +1368,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6643954514</x:v>
+        <x:v>45909.4152705671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1382,7 +1400,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4145090625</x:v>
+        <x:v>45906.4232955208</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1414,7 +1432,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.6320335648</x:v>
+        <x:v>45906.6643954514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1446,7 +1464,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4154623843</x:v>
+        <x:v>45907.4145090625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1478,7 +1496,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.665363044</x:v>
+        <x:v>45915.6320335648</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1510,7 +1528,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.7101332986</x:v>
+        <x:v>45909.4154623843</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1542,7 +1560,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45906.665363044</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1574,7 +1592,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.9234601852</x:v>
+        <x:v>45906.7101332986</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1606,7 +1624,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145228357</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1638,7 +1656,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45923.9234601852</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1670,7 +1688,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4145199421</x:v>
+        <x:v>45907.4145228357</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1702,7 +1720,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1734,7 +1752,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45907.4145199421</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1766,7 +1784,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4341928588</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1798,7 +1816,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1826,9 +1844,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.552733912</x:v>
+        <x:v>45907.4341928588</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1851,16 +1871,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5541662037</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1883,16 +1903,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45915.552733912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1924,7 +1942,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45915.5541662037</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1956,7 +1974,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6932487268</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1988,7 +2006,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.6322303241</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2020,7 +2038,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6932487268</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2052,7 +2070,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.5543664005</x:v>
+        <x:v>45915.6322303241</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2084,7 +2102,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.5544466782</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2116,7 +2134,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.6323031597</x:v>
+        <x:v>45915.5543664005</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2148,7 +2166,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4151114583</x:v>
+        <x:v>45915.5544466782</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2180,7 +2198,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5543087153</x:v>
+        <x:v>45915.6323031597</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2212,7 +2230,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.6319752662</x:v>
+        <x:v>45909.4151114583</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2244,7 +2262,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5546143519</x:v>
+        <x:v>45915.5543087153</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2276,7 +2294,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.6323799421</x:v>
+        <x:v>45915.6319752662</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2308,7 +2326,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4150170949</x:v>
+        <x:v>45915.5546143519</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2340,7 +2358,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.5495391204</x:v>
+        <x:v>45915.6323799421</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2372,7 +2390,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45919.3903082523</x:v>
+        <x:v>45909.4150170949</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2404,7 +2422,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5545430903</x:v>
+        <x:v>45915.5495391204</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2436,7 +2454,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.6318636574</x:v>
+        <x:v>45919.3903082523</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2468,7 +2486,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45915.5545430903</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2485,6 +2503,70 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45915.6318636574</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45906.6649812153</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS204_Tutorial-35062.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35062.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -150,15 +150,6 @@
     <x:t>Rowida Ahmed Aboelfotouh</x:t>
   </x:si>
   <x:si>
-    <x:t>1190010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمود على على حسين الفقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeyad Mahmoud Ali Ali Hussein Elfeky</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210054</x:t>
   </x:si>
   <x:si>
@@ -213,15 +204,6 @@
     <x:t>Assem Ali Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1220180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد ابراهيم عبدالرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABDELRAHMAN AHMED IBRAHIM ABDELRAHMAN</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230053</x:t>
   </x:si>
   <x:si>
@@ -471,6 +453,15 @@
     <x:t>Yousab nageh barbary yousef</x:t>
   </x:si>
   <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220090</x:t>
   </x:si>
   <x:si>
@@ -478,6 +469,12 @@
   </x:si>
   <x:si>
     <x:t>youssef essam abdel monaem ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -902,7 +899,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.640625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1400,7 +1397,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4232955208</x:v>
+        <x:v>45906.6643954514</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1432,7 +1429,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6643954514</x:v>
+        <x:v>45907.4145090625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1464,7 +1461,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4145090625</x:v>
+        <x:v>45915.6320335648</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1496,7 +1493,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.6320335648</x:v>
+        <x:v>45909.4154623843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1528,7 +1525,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4154623843</x:v>
+        <x:v>45906.665363044</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1560,7 +1557,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.665363044</x:v>
+        <x:v>45906.7101332986</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1592,7 +1589,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.7101332986</x:v>
+        <x:v>45923.9234601852</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1624,7 +1621,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45907.4145228357</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1656,7 +1653,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.9234601852</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1688,7 +1685,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4145228357</x:v>
+        <x:v>45907.4145199421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1720,7 +1717,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1752,7 +1749,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4145199421</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1784,7 +1781,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.4341928588</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1816,7 +1813,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1844,11 +1841,9 @@
       <x:c r="C29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.4341928588</x:v>
+        <x:v>45915.552733912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1871,16 +1866,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45915.5541662037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1903,14 +1898,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45915.552733912</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1942,7 +1939,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.5541662037</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1974,7 +1971,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45906.6932487268</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2006,7 +2003,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45915.6322303241</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2038,7 +2035,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6932487268</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2070,7 +2067,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.6322303241</x:v>
+        <x:v>45915.5543664005</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2102,7 +2099,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45915.5544466782</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2134,7 +2131,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5543664005</x:v>
+        <x:v>45915.6323031597</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2166,7 +2163,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5544466782</x:v>
+        <x:v>45909.4151114583</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2198,7 +2195,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.6323031597</x:v>
+        <x:v>45915.5543087153</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2230,7 +2227,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4151114583</x:v>
+        <x:v>45915.6319752662</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2262,7 +2259,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5543087153</x:v>
+        <x:v>45915.5546143519</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2294,7 +2291,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.6319752662</x:v>
+        <x:v>45915.6323799421</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2326,7 +2323,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.5546143519</x:v>
+        <x:v>45909.4150170949</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2358,7 +2355,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.6323799421</x:v>
+        <x:v>45915.5495391204</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2390,7 +2387,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4150170949</x:v>
+        <x:v>45919.3903082523</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2422,7 +2419,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5495391204</x:v>
+        <x:v>45915.5545430903</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2454,7 +2451,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45919.3903082523</x:v>
+        <x:v>45915.6318636574</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2486,7 +2483,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45915.5545430903</x:v>
+        <x:v>45929.1556777431</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2518,7 +2515,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45915.6318636574</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2546,11 +2543,9 @@
       <x:c r="C51" s="2" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
+      <x:c r="D51" s="2" t="s"/>
       <x:c r="E51" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45928.9078363773</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>

--- a/downloaded_files/MTHS204_Tutorial-35062.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35062.xlsx
@@ -210,7 +210,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>1230051</x:t>
@@ -342,7 +342,7 @@
     <x:t>محمد حاتم فوزى محمود المتناوى</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed hatem fawzy Mahmoud</x:t>
+    <x:t>Mohamed Hatem Fawzy Mahmoud El-Metnawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220079</x:t>
@@ -378,7 +378,7 @@
     <x:t>مروان محمد محمد رمزي عبدالرحمن</x:t>
   </x:si>
   <x:si>
-    <x:t>Marwan mohamed mohamed ramzy</x:t>
+    <x:t>Marwan Mohamed Mohamed Ramzy Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1220201</x:t>
@@ -899,7 +899,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.250625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MTHS204_Tutorial-35062.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35062.xlsx
@@ -237,7 +237,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220097</x:t>
